--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ceacam1-Cd209e.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ceacam1-Cd209e.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.64525366666667</v>
+        <v>22.320355</v>
       </c>
       <c r="H2">
-        <v>130.935761</v>
+        <v>66.961065</v>
       </c>
       <c r="I2">
-        <v>0.5421200012818527</v>
+        <v>0.4795709034536316</v>
       </c>
       <c r="J2">
-        <v>0.5463095076486307</v>
+        <v>0.480894303533459</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,10 +558,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.04374</v>
+        <v>0.1938303333333333</v>
       </c>
       <c r="N2">
-        <v>0.13122</v>
+        <v>0.581491</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.90904339538</v>
+        <v>4.326361849768333</v>
       </c>
       <c r="R2">
-        <v>17.18139055842</v>
+        <v>38.937256647915</v>
       </c>
       <c r="S2">
-        <v>0.5421200012818527</v>
+        <v>0.4795709034536316</v>
       </c>
       <c r="T2">
-        <v>0.5463095076486307</v>
+        <v>0.480894303533459</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.484701</v>
       </c>
       <c r="I3">
-        <v>0.002006832241508989</v>
+        <v>0.003471397841042084</v>
       </c>
       <c r="J3">
-        <v>0.00202234105216526</v>
+        <v>0.003480977338352835</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,10 +620,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.04374</v>
+        <v>0.1938303333333333</v>
       </c>
       <c r="N3">
-        <v>0.13122</v>
+        <v>0.581491</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.007066940579999999</v>
+        <v>0.03131658546566667</v>
       </c>
       <c r="R3">
-        <v>0.06360246522</v>
+        <v>0.281849269191</v>
       </c>
       <c r="S3">
-        <v>0.002006832241508989</v>
+        <v>0.003471397841042084</v>
       </c>
       <c r="T3">
-        <v>0.00202234105216526</v>
+        <v>0.003480977338352835</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.44622</v>
+        <v>16.184686</v>
       </c>
       <c r="H4">
-        <v>31.33866</v>
+        <v>48.554058</v>
       </c>
       <c r="I4">
-        <v>0.1297530504242576</v>
+        <v>0.3477410859788449</v>
       </c>
       <c r="J4">
-        <v>0.1307557827152189</v>
+        <v>0.3487006950327504</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,10 +682,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.04374</v>
+        <v>0.1938303333333333</v>
       </c>
       <c r="N4">
-        <v>0.13122</v>
+        <v>0.581491</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.4569176628</v>
+        <v>3.137083082275333</v>
       </c>
       <c r="R4">
-        <v>4.1122589652</v>
+        <v>28.233747740478</v>
       </c>
       <c r="S4">
-        <v>0.1297530504242576</v>
+        <v>0.3477410859788449</v>
       </c>
       <c r="T4">
-        <v>0.1307557827152189</v>
+        <v>0.3487006950327504</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.852196</v>
+        <v>0.3842475</v>
       </c>
       <c r="H5">
-        <v>3.704392</v>
+        <v>0.7684949999999999</v>
       </c>
       <c r="I5">
-        <v>0.02300622435518382</v>
+        <v>0.008255868722733095</v>
       </c>
       <c r="J5">
-        <v>0.01545601105612031</v>
+        <v>0.005519100805728606</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.04374</v>
+        <v>0.1938303333333333</v>
       </c>
       <c r="N5">
-        <v>0.13122</v>
+        <v>0.581491</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.08101505304000001</v>
+        <v>0.07447882100749999</v>
       </c>
       <c r="R5">
-        <v>0.48609031824</v>
+        <v>0.446872926045</v>
       </c>
       <c r="S5">
-        <v>0.02300622435518382</v>
+        <v>0.008255868722733095</v>
       </c>
       <c r="T5">
-        <v>0.01545601105612031</v>
+        <v>0.005519100805728606</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.40323666666667</v>
+        <v>7.491490666666667</v>
       </c>
       <c r="H6">
-        <v>73.20971</v>
+        <v>22.474472</v>
       </c>
       <c r="I6">
-        <v>0.303113891697197</v>
+        <v>0.1609607440037482</v>
       </c>
       <c r="J6">
-        <v>0.3054563575278647</v>
+        <v>0.1614049232897091</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.04374</v>
+        <v>0.1938303333333333</v>
       </c>
       <c r="N6">
-        <v>0.13122</v>
+        <v>0.581491</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>1.0673975718</v>
+        <v>1.452078133083556</v>
       </c>
       <c r="R6">
-        <v>9.6065781462</v>
+        <v>13.068703197752</v>
       </c>
       <c r="S6">
-        <v>0.303113891697197</v>
+        <v>0.1609607440037482</v>
       </c>
       <c r="T6">
-        <v>0.3054563575278647</v>
+        <v>0.1614049232897091</v>
       </c>
     </row>
   </sheetData>
